--- a/PosicaoDetalhada.xlsx
+++ b/PosicaoDetalhada.xlsx
@@ -11,12 +11,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="172">
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Conta: 2563257 | 25/10/2022 14:10</t>
+    <t>Conta: 2563257 | 31/10/2022 18:08</t>
   </si>
   <si>
     <t>Gabriel, este é o seu patrimônio</t>
@@ -40,7 +40,7 @@
     <t>Nome assessor</t>
   </si>
   <si>
-    <t>R$ 712.581,38</t>
+    <t>R$ 709.795,67</t>
   </si>
   <si>
     <t>R$ 0,00</t>
@@ -52,21 +52,108 @@
     <t>Marcos De Almeida Pimentel Filho</t>
   </si>
   <si>
+    <t>Fundos de Investimentos</t>
+  </si>
+  <si>
+    <t>R$ 134.390,28</t>
+  </si>
+  <si>
+    <t>18,9% | Pós-Fixado</t>
+  </si>
+  <si>
+    <t>Posição</t>
+  </si>
+  <si>
+    <t>% Alocação</t>
+  </si>
+  <si>
+    <t>Rentabilidade</t>
+  </si>
+  <si>
+    <t>Valor aplicado</t>
+  </si>
+  <si>
+    <t>Valor líquido</t>
+  </si>
+  <si>
+    <t>Data da cota</t>
+  </si>
+  <si>
+    <t>Trend DI Simples FIRF</t>
+  </si>
+  <si>
+    <t>R$ 133.529,94</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>R$ 126.927,18</t>
+  </si>
+  <si>
+    <t>R$ 132.042,18</t>
+  </si>
+  <si>
+    <t>31/10/2022</t>
+  </si>
+  <si>
+    <t>Trend Investback FIC FIRF Simples</t>
+  </si>
+  <si>
+    <t>R$ 860,34</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>R$ 799,62</t>
+  </si>
+  <si>
+    <t>R$ 852,57</t>
+  </si>
+  <si>
+    <t>COE</t>
+  </si>
+  <si>
+    <t>R$ 5.000,00</t>
+  </si>
+  <si>
+    <t>0,7% | Alternativos</t>
+  </si>
+  <si>
+    <t>Rendimento bruto</t>
+  </si>
+  <si>
+    <t>Vencimento</t>
+  </si>
+  <si>
+    <t>MS Morgan Stanley Global Opportunity: Alta Ilimitada - 3,5 anos - 30.09.2020</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>04/04/2024</t>
+  </si>
+  <si>
     <t>Fundos Imobiliários</t>
   </si>
   <si>
-    <t>R$ 547.268,44</t>
+    <t>R$ 545.032,14</t>
   </si>
   <si>
     <t>76,8% | Renda Variável</t>
   </si>
   <si>
-    <t>Posição</t>
-  </si>
-  <si>
-    <t>% Alocação</t>
-  </si>
-  <si>
     <t>Rentabilidade c/ proventos</t>
   </si>
   <si>
@@ -79,61 +166,64 @@
     <t>Qtd. total</t>
   </si>
   <si>
+    <t>VGIA11</t>
+  </si>
+  <si>
+    <t>R$ 76.419,20</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>R$ 10,26</t>
+  </si>
+  <si>
+    <t>R$ 10,40</t>
+  </si>
+  <si>
+    <t>7.348</t>
+  </si>
+  <si>
     <t>BLMR11</t>
   </si>
   <si>
-    <t>R$ 76.200,00</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
+    <t>R$ 75.500,00</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
   </si>
   <si>
     <t>R$ 7,51</t>
   </si>
   <si>
-    <t>R$ 7,62</t>
+    <t>R$ 7,55</t>
   </si>
   <si>
     <t>10.000</t>
   </si>
   <si>
-    <t>VGIA11</t>
-  </si>
-  <si>
-    <t>R$ 76.198,76</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>R$ 10,26</t>
-  </si>
-  <si>
-    <t>R$ 10,37</t>
-  </si>
-  <si>
-    <t>7.348</t>
-  </si>
-  <si>
     <t>RZTR11</t>
   </si>
   <si>
-    <t>R$ 66.074,40</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
+    <t>R$ 65.853,90</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
   </si>
   <si>
     <t>R$ 102,97</t>
   </si>
   <si>
-    <t>R$ 104,88</t>
+    <t>R$ 104,53</t>
   </si>
   <si>
     <t>630</t>
@@ -142,19 +232,19 @@
     <t>RBRR11</t>
   </si>
   <si>
-    <t>R$ 61.056,57</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>-1,54%</t>
+    <t>R$ 60.289,81</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>-2,69%</t>
   </si>
   <si>
     <t>R$ 100,38</t>
   </si>
   <si>
-    <t>R$ 92,37</t>
+    <t>R$ 91,21</t>
   </si>
   <si>
     <t>661</t>
@@ -163,19 +253,19 @@
     <t>LVBI11</t>
   </si>
   <si>
-    <t>R$ 59.861,15</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
+    <t>R$ 59.278,00</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
   </si>
   <si>
     <t>R$ 98,50</t>
   </si>
   <si>
-    <t>R$ 111,89</t>
+    <t>R$ 110,80</t>
   </si>
   <si>
     <t>535</t>
@@ -184,19 +274,19 @@
     <t>BRCO11</t>
   </si>
   <si>
-    <t>R$ 56.094,90</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
+    <t>R$ 55.947,00</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
   </si>
   <si>
     <t>R$ 99,28</t>
   </si>
   <si>
-    <t>R$ 109,99</t>
+    <t>R$ 109,70</t>
   </si>
   <si>
     <t>510</t>
@@ -205,19 +295,19 @@
     <t>PVBI11</t>
   </si>
   <si>
-    <t>R$ 53.534,52</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
+    <t>R$ 53.568,00</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
   </si>
   <si>
     <t>R$ 93,67</t>
   </si>
   <si>
-    <t>R$ 95,94</t>
+    <t>R$ 96,00</t>
   </si>
   <si>
     <t>558</t>
@@ -226,19 +316,19 @@
     <t>WHGR11</t>
   </si>
   <si>
-    <t>R$ 53.216,40</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>-7,31%</t>
+    <t>R$ 53.100,08</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>-7,5%</t>
   </si>
   <si>
     <t>R$ 10,31</t>
   </si>
   <si>
-    <t>R$ 9,15</t>
+    <t>R$ 9,13</t>
   </si>
   <si>
     <t>5.816</t>
@@ -247,88 +337,85 @@
     <t>FGAA11</t>
   </si>
   <si>
-    <t>R$ 45.031,74</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>R$ 10,14</t>
+    <t>R$ 45.076,15</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>R$ 10,15</t>
   </si>
   <si>
     <t>4.441</t>
   </si>
   <si>
-    <t>Fundos de Investimentos</t>
-  </si>
-  <si>
-    <t>R$ 134.118,67</t>
-  </si>
-  <si>
-    <t>18,8% | Pós-Fixado</t>
-  </si>
-  <si>
-    <t>Rentabilidade</t>
-  </si>
-  <si>
-    <t>Valor aplicado</t>
-  </si>
-  <si>
-    <t>Valor líquido</t>
-  </si>
-  <si>
-    <t>Data da cota</t>
-  </si>
-  <si>
-    <t>Trend DI Simples FIRF</t>
-  </si>
-  <si>
-    <t>R$ 133.260,07</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>R$ 126.927,18</t>
-  </si>
-  <si>
-    <t>R$ 131.833,03</t>
-  </si>
-  <si>
-    <t>25/10/2022</t>
-  </si>
-  <si>
-    <t>Trend Investback FIC FIRF Simples</t>
-  </si>
-  <si>
-    <t>R$ 858,60</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>R$ 799,62</t>
-  </si>
-  <si>
-    <t>R$ 850,94</t>
+    <t>Renda Fixa</t>
+  </si>
+  <si>
+    <t>R$ 13.413,30</t>
+  </si>
+  <si>
+    <t>1,9% | Inflação</t>
+  </si>
+  <si>
+    <t>Taxa</t>
+  </si>
+  <si>
+    <t>Data aplicação</t>
+  </si>
+  <si>
+    <t>Data vencimento</t>
+  </si>
+  <si>
+    <t>CDB BMG - JUL/2023</t>
+  </si>
+  <si>
+    <t>R$ 7.000,05</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>R$ 6.000,00</t>
+  </si>
+  <si>
+    <t>IPC-A + 4,15%</t>
+  </si>
+  <si>
+    <t>15/07/2021</t>
+  </si>
+  <si>
+    <t>15/07/2023</t>
+  </si>
+  <si>
+    <t>CDB BMG - SET/2024</t>
+  </si>
+  <si>
+    <t>R$ 6.413,25</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>IPC-A + 3,65%</t>
+  </si>
+  <si>
+    <t>24/09/2020</t>
+  </si>
+  <si>
+    <t>23/09/2024</t>
   </si>
   <si>
     <t>Ações</t>
   </si>
   <si>
-    <t>R$ 12.803,15</t>
-  </si>
-  <si>
-    <t>1,8% | Renda Variável</t>
+    <t>R$ 11.959,95</t>
+  </si>
+  <si>
+    <t>1,7% | Renda Variável</t>
   </si>
   <si>
     <t>Rentabilidade (%)</t>
@@ -343,19 +430,19 @@
     <t>AAPL34</t>
   </si>
   <si>
-    <t>R$ 3.295,17</t>
+    <t>R$ 3.254,17</t>
   </si>
   <si>
     <t>0,46%</t>
   </si>
   <si>
-    <t>-17,54%</t>
+    <t>-18,57%</t>
   </si>
   <si>
     <t>R$ 97,47</t>
   </si>
   <si>
-    <t>R$ 80,37</t>
+    <t>R$ 79,37</t>
   </si>
   <si>
     <t>41</t>
@@ -364,19 +451,19 @@
     <t>XPBR31</t>
   </si>
   <si>
-    <t>R$ 3.095,36</t>
+    <t>R$ 3.019,52</t>
   </si>
   <si>
     <t>0,43%</t>
   </si>
   <si>
-    <t>-38,21%</t>
+    <t>-39,72%</t>
   </si>
   <si>
     <t>R$ 156,54</t>
   </si>
   <si>
-    <t>R$ 96,73</t>
+    <t>R$ 94,36</t>
   </si>
   <si>
     <t>32</t>
@@ -385,19 +472,19 @@
     <t>GOGL34</t>
   </si>
   <si>
-    <t>R$ 2.732,40</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>-30,53%</t>
+    <t>R$ 2.460,00</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>-37,46%</t>
   </si>
   <si>
     <t>R$ 65,56</t>
   </si>
   <si>
-    <t>R$ 45,54</t>
+    <t>R$ 41,00</t>
   </si>
   <si>
     <t>60</t>
@@ -406,19 +493,19 @@
     <t>HASH11</t>
   </si>
   <si>
-    <t>R$ 2.135,22</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>-57,33%</t>
+    <t>R$ 2.187,66</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>-56,28%</t>
   </si>
   <si>
     <t>R$ 43,89</t>
   </si>
   <si>
-    <t>R$ 18,73</t>
+    <t>R$ 19,19</t>
   </si>
   <si>
     <t>114</t>
@@ -427,103 +514,19 @@
     <t>M1TA34</t>
   </si>
   <si>
-    <t>R$ 1.545,00</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>-61,16%</t>
+    <t>R$ 1.038,60</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>-73,89%</t>
   </si>
   <si>
     <t>R$ 66,29</t>
   </si>
   <si>
-    <t>R$ 25,75</t>
-  </si>
-  <si>
-    <t>Renda Fixa</t>
-  </si>
-  <si>
-    <t>R$ 13.391,12</t>
-  </si>
-  <si>
-    <t>1,9% | Inflação</t>
-  </si>
-  <si>
-    <t>Taxa</t>
-  </si>
-  <si>
-    <t>Data aplicação</t>
-  </si>
-  <si>
-    <t>Data vencimento</t>
-  </si>
-  <si>
-    <t>CDB BMG - JUL/2023</t>
-  </si>
-  <si>
-    <t>R$ 6.987,50</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>R$ 6.000,00</t>
-  </si>
-  <si>
-    <t>IPC-A + 4,15%</t>
-  </si>
-  <si>
-    <t>15/07/2021</t>
-  </si>
-  <si>
-    <t>15/07/2023</t>
-  </si>
-  <si>
-    <t>CDB BMG - SET/2024</t>
-  </si>
-  <si>
-    <t>R$ 6.403,62</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>R$ 5.000,00</t>
-  </si>
-  <si>
-    <t>IPC-A + 3,65%</t>
-  </si>
-  <si>
-    <t>24/09/2020</t>
-  </si>
-  <si>
-    <t>23/09/2024</t>
-  </si>
-  <si>
-    <t>COE</t>
-  </si>
-  <si>
-    <t>0,7% | Alternativos</t>
-  </si>
-  <si>
-    <t>Rendimento bruto</t>
-  </si>
-  <si>
-    <t>Vencimento</t>
-  </si>
-  <si>
-    <t>MS Morgan Stanley Global Opportunity: Alta Ilimitada - 3,5 anos - 30.09.2020</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>04/04/2024</t>
+    <t>R$ 17,31</t>
   </si>
 </sst>
 </file>
@@ -1310,830 +1313,830 @@
         <v>30</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" ht="30" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" ht="25" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" ht="25" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" ht="45" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="12" t="s">
+    </row>
+    <row r="14" ht="25" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" ht="35" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="B15" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="11" t="s">
         <v>39</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" ht="30" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" ht="30" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" ht="30" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" ht="30" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="16" ht="30" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" ht="30" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>82</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" ht="25" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="18" ht="25" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" ht="25" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" ht="45" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20"/>
-      <c r="G20" s="10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" ht="25" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" ht="35" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="B22" s="11" t="s">
+      <c r="A18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" ht="45" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" ht="25" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" ht="35" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C21" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>89</v>
+      <c r="D21" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" ht="30" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="23" ht="30" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" ht="30" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" ht="30" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" ht="30" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" ht="30" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" ht="30" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E28" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="F28" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="G28" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="D24" s="12" t="s">
+    </row>
+    <row r="29" ht="30" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="B29" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="C29" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="G24" s="12" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="25" ht="25" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="G25" s="13" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" ht="25" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" ht="45" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
+      <c r="D29" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="B27"/>
-      <c r="C27"/>
-      <c r="D27"/>
-      <c r="E27"/>
-      <c r="F27"/>
-      <c r="G27" s="10" t="s">
+      <c r="E29" s="12" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="28" ht="25" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" ht="35" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
+      <c r="F29" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="B29" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29" s="11" t="s">
+      <c r="G29" s="12" t="s">
         <v>106</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="30" ht="30" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C30" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="D30" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="E30" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="F30" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="G30" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="E30" s="12" t="s">
+    </row>
+    <row r="31" ht="25" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" ht="25" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" ht="45" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="F30" s="12" t="s">
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="G30" s="12" t="s">
+    </row>
+    <row r="34" ht="25" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" ht="35" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="11" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="31" ht="30" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
+      <c r="B35" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="F35" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="G35" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="D31" s="12" t="s">
+    </row>
+    <row r="36" ht="30" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="E31" s="12" t="s">
+      <c r="B36" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="F31" s="12" t="s">
+      <c r="C36" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="G31" s="12" t="s">
+      <c r="D36" s="12" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="32" ht="30" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
+      <c r="E36" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="F36" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="G36" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="D32" s="12" t="s">
+    </row>
+    <row r="37" ht="30" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="E32" s="12" t="s">
+      <c r="B37" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="F32" s="12" t="s">
+      <c r="C37" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="G32" s="12" t="s">
+      <c r="D37" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E37" s="12" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="33" ht="30" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="12" t="s">
+      <c r="F37" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="G37" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="C33" s="12" t="s">
+    </row>
+    <row r="38" ht="25" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" ht="25" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" ht="45" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="E33" s="12" t="s">
+    </row>
+    <row r="41" ht="25" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" ht="35" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="F33" s="12" t="s">
+      <c r="B42" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="G33" s="12" t="s">
+      <c r="E42" s="11" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="34" ht="30" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="12" t="s">
+      <c r="F42" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="G42" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" ht="30" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="B43" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="C43" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="E34" s="12" t="s">
+      <c r="D43" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="F34" s="12" t="s">
+      <c r="E43" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="G34" s="12" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="35" ht="25" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="F35" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="G35" s="13" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" ht="25" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" ht="45" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
+      <c r="F43" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="B37"/>
-      <c r="C37"/>
-      <c r="D37"/>
-      <c r="E37"/>
-      <c r="F37"/>
-      <c r="G37" s="10" t="s">
+      <c r="G43" s="12" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="38" ht="25" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" ht="35" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="11" t="s">
+    <row r="44" ht="30" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="B39" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E39" s="11" t="s">
+      <c r="B44" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="F39" s="11" t="s">
+      <c r="C44" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="G39" s="11" t="s">
+      <c r="D44" s="12" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="40" ht="30" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="12" t="s">
+      <c r="E44" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="F44" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="G44" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="D40" s="12" t="s">
+    </row>
+    <row r="45" ht="30" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="E40" s="12" t="s">
+      <c r="B45" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="F40" s="12" t="s">
+      <c r="C45" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="G40" s="12" t="s">
+      <c r="D45" s="12" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="41" ht="30" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="12" t="s">
+      <c r="E45" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="F45" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="G45" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="D41" s="12" t="s">
+    </row>
+    <row r="46" ht="30" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="E41" s="12" t="s">
+      <c r="B46" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="F41" s="12" t="s">
+      <c r="C46" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="G41" s="12" t="s">
+      <c r="D46" s="12" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="42" ht="25" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="E42" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="F42" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="G42" s="13" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" ht="25" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" ht="45" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="9" t="s">
+      <c r="E46" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="B44"/>
-      <c r="C44"/>
-      <c r="D44"/>
-      <c r="E44"/>
-      <c r="F44"/>
-      <c r="G44" s="10" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="45" ht="25" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" ht="35" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="11" t="s">
+      <c r="F46" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="B46" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D46" s="11" t="s">
+      <c r="G46" s="12" t="s">
         <v>165</v>
-      </c>
-      <c r="E46" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="F46" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="G46" s="11" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="47" ht="30" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="B47" s="12" t="s">
         <v>167</v>
-      </c>
-      <c r="B47" s="12" t="s">
-        <v>159</v>
       </c>
       <c r="C47" s="12" t="s">
         <v>168</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>10</v>
+        <v>169</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="G47" s="12" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
     </row>
     <row r="48" ht="25" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -2187,10 +2190,10 @@
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A40:F40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/PosicaoDetalhada.xlsx
+++ b/PosicaoDetalhada.xlsx
@@ -11,12 +11,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="202">
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Conta: 2563257 | 27/12/2022 09:58</t>
+    <t>Conta: 2563257 | 04/01/2023 09:16</t>
   </si>
   <si>
     <t>Gabriel, este é o seu patrimônio</t>
@@ -40,13 +40,10 @@
     <t>Nome assessor</t>
   </si>
   <si>
-    <t>R$ 689.619,96</t>
-  </si>
-  <si>
-    <t>R$ 684.259,58</t>
-  </si>
-  <si>
-    <t>R$ 5.360,38</t>
+    <t>R$ 687.991,98</t>
+  </si>
+  <si>
+    <t>R$ 0,00</t>
   </si>
   <si>
     <t>A9249</t>
@@ -55,6 +52,75 @@
     <t>Marcos De Almeida Pimentel Filho</t>
   </si>
   <si>
+    <t>Fundos de Investimentos</t>
+  </si>
+  <si>
+    <t>R$ 136.331,16</t>
+  </si>
+  <si>
+    <t>19,8% | Pós-Fixado</t>
+  </si>
+  <si>
+    <t>Posição</t>
+  </si>
+  <si>
+    <t>% Alocação</t>
+  </si>
+  <si>
+    <t>Rentabilidade</t>
+  </si>
+  <si>
+    <t>Valor aplicado</t>
+  </si>
+  <si>
+    <t>Valor líquido</t>
+  </si>
+  <si>
+    <t>Data da cota</t>
+  </si>
+  <si>
+    <t>Trend DI Simples FIRF</t>
+  </si>
+  <si>
+    <t>R$ 135.403,66</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>R$ 125.805,53</t>
+  </si>
+  <si>
+    <t>R$ 134.646,97</t>
+  </si>
+  <si>
+    <t>04/01/2023</t>
+  </si>
+  <si>
+    <t>Trend Investback FIC FIRF Simples</t>
+  </si>
+  <si>
+    <t>R$ 927,50</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>R$ 847,00</t>
+  </si>
+  <si>
+    <t>R$ 923,36</t>
+  </si>
+  <si>
+    <t>03/01/2023</t>
+  </si>
+  <si>
     <t>COE</t>
   </si>
   <si>
@@ -64,21 +130,9 @@
     <t>0,7% | Alternativos</t>
   </si>
   <si>
-    <t>Posição</t>
-  </si>
-  <si>
-    <t>% Alocação</t>
-  </si>
-  <si>
     <t>Rendimento bruto</t>
   </si>
   <si>
-    <t>Rentabilidade</t>
-  </si>
-  <si>
-    <t>Valor aplicado</t>
-  </si>
-  <si>
     <t>Vencimento</t>
   </si>
   <si>
@@ -88,22 +142,307 @@
     <t>0,73%</t>
   </si>
   <si>
-    <t>R$ 0,00</t>
-  </si>
-  <si>
     <t>0%</t>
   </si>
   <si>
     <t>04/04/2024</t>
   </si>
   <si>
+    <t>Fundos Imobiliários</t>
+  </si>
+  <si>
+    <t>R$ 519.867,97</t>
+  </si>
+  <si>
+    <t>75,6% | Renda Variável</t>
+  </si>
+  <si>
+    <t>Rentabilidade c/ proventos</t>
+  </si>
+  <si>
+    <t>Preço médio (abertura)</t>
+  </si>
+  <si>
+    <t>Última cotação</t>
+  </si>
+  <si>
+    <t>Qtd. total</t>
+  </si>
+  <si>
+    <t>VGIA11</t>
+  </si>
+  <si>
+    <t>R$ 72.965,64</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>R$ 10,26</t>
+  </si>
+  <si>
+    <t>R$ 9,93</t>
+  </si>
+  <si>
+    <t>7.348</t>
+  </si>
+  <si>
+    <t>BLMR11</t>
+  </si>
+  <si>
+    <t>R$ 68.900,00</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>-0,29%</t>
+  </si>
+  <si>
+    <t>R$ 7,51</t>
+  </si>
+  <si>
+    <t>R$ 6,89</t>
+  </si>
+  <si>
+    <t>10.000</t>
+  </si>
+  <si>
+    <t>RZTR11</t>
+  </si>
+  <si>
+    <t>R$ 59.213,70</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>R$ 102,97</t>
+  </si>
+  <si>
+    <t>R$ 93,99</t>
+  </si>
+  <si>
+    <t>630</t>
+  </si>
+  <si>
+    <t>RBRR11</t>
+  </si>
+  <si>
+    <t>R$ 57.725,13</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>-5,16%</t>
+  </si>
+  <si>
+    <t>R$ 100,38</t>
+  </si>
+  <si>
+    <t>R$ 87,33</t>
+  </si>
+  <si>
+    <t>661</t>
+  </si>
+  <si>
+    <t>LVBI11</t>
+  </si>
+  <si>
+    <t>R$ 52.264,15</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>R$ 98,50</t>
+  </si>
+  <si>
+    <t>R$ 97,69</t>
+  </si>
+  <si>
+    <t>535</t>
+  </si>
+  <si>
+    <t>BRCO11</t>
+  </si>
+  <si>
+    <t>R$ 50.847,00</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>R$ 99,28</t>
+  </si>
+  <si>
+    <t>R$ 99,70</t>
+  </si>
+  <si>
+    <t>510</t>
+  </si>
+  <si>
+    <t>WHGR11</t>
+  </si>
+  <si>
+    <t>R$ 49.784,96</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>-10,8%</t>
+  </si>
+  <si>
+    <t>R$ 10,31</t>
+  </si>
+  <si>
+    <t>R$ 8,56</t>
+  </si>
+  <si>
+    <t>5.816</t>
+  </si>
+  <si>
+    <t>PVBI11</t>
+  </si>
+  <si>
+    <t>R$ 49.204,44</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>-0,44%</t>
+  </si>
+  <si>
+    <t>R$ 93,67</t>
+  </si>
+  <si>
+    <t>R$ 88,18</t>
+  </si>
+  <si>
+    <t>558</t>
+  </si>
+  <si>
+    <t>FGAA11</t>
+  </si>
+  <si>
+    <t>R$ 44.187,95</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>R$ 9,95</t>
+  </si>
+  <si>
+    <t>4.441</t>
+  </si>
+  <si>
+    <t>AAZQ11</t>
+  </si>
+  <si>
+    <t>R$ 14.775,00</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>-0,5%</t>
+  </si>
+  <si>
+    <t>R$ 10,00</t>
+  </si>
+  <si>
+    <t>R$ 9,85</t>
+  </si>
+  <si>
+    <t>1.500</t>
+  </si>
+  <si>
+    <t>Renda Fixa</t>
+  </si>
+  <si>
+    <t>R$ 13.646,96</t>
+  </si>
+  <si>
+    <t>2% | Inflação</t>
+  </si>
+  <si>
+    <t>Posição a mercado</t>
+  </si>
+  <si>
+    <t>Taxa a mercado</t>
+  </si>
+  <si>
+    <t>Data aplicação</t>
+  </si>
+  <si>
+    <t>Data vencimento</t>
+  </si>
+  <si>
+    <t>CDB BMG  - JUL/2023</t>
+  </si>
+  <si>
+    <t>R$ 7.124,32</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>R$ 6.000,00</t>
+  </si>
+  <si>
+    <t>IPC-A + 4,15%</t>
+  </si>
+  <si>
+    <t>15/07/2021</t>
+  </si>
+  <si>
+    <t>15/07/2023</t>
+  </si>
+  <si>
+    <t>CDB BMG  - SET/2024</t>
+  </si>
+  <si>
+    <t>R$ 6.522,64</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>IPC-A + 3,65%</t>
+  </si>
+  <si>
+    <t>24/09/2020</t>
+  </si>
+  <si>
+    <t>23/09/2024</t>
+  </si>
+  <si>
     <t>Ações</t>
   </si>
   <si>
-    <t>R$ 10.594,44</t>
-  </si>
-  <si>
-    <t>1,5% | Renda Variável</t>
+    <t>R$ 10.924,84</t>
+  </si>
+  <si>
+    <t>1,6% | Renda Variável</t>
   </si>
   <si>
     <t>Rentabilidade (%)</t>
@@ -115,25 +454,22 @@
     <t>Último preço (R$)</t>
   </si>
   <si>
-    <t>Qtd. total</t>
-  </si>
-  <si>
     <t>AAPL34</t>
   </si>
   <si>
-    <t>R$ 2.789,64</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>-30,19%</t>
+    <t>R$ 2.792,92</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>-30,11%</t>
   </si>
   <si>
     <t>R$ 48,74</t>
   </si>
   <si>
-    <t>R$ 34,02</t>
+    <t>R$ 34,06</t>
   </si>
   <si>
     <t>82</t>
@@ -142,19 +478,19 @@
     <t>XPBR31</t>
   </si>
   <si>
-    <t>R$ 2.505,60</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>-49,98%</t>
+    <t>R$ 2.440,32</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>-51,28%</t>
   </si>
   <si>
     <t>R$ 156,54</t>
   </si>
   <si>
-    <t>R$ 78,30</t>
+    <t>R$ 76,26</t>
   </si>
   <si>
     <t>32</t>
@@ -163,19 +499,16 @@
     <t>GOGL34</t>
   </si>
   <si>
-    <t>R$ 2.268,00</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>-42,34%</t>
+    <t>R$ 2.435,40</t>
+  </si>
+  <si>
+    <t>-38,08%</t>
   </si>
   <si>
     <t>R$ 65,56</t>
   </si>
   <si>
-    <t>R$ 37,80</t>
+    <t>R$ 40,59</t>
   </si>
   <si>
     <t>60</t>
@@ -184,19 +517,19 @@
     <t>HASH11</t>
   </si>
   <si>
-    <t>R$ 1.744,20</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>-65,14%</t>
+    <t>R$ 1.801,20</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>-64%</t>
   </si>
   <si>
     <t>R$ 43,89</t>
   </si>
   <si>
-    <t>R$ 15,30</t>
+    <t>R$ 15,80</t>
   </si>
   <si>
     <t>114</t>
@@ -205,355 +538,85 @@
     <t>M1TA34</t>
   </si>
   <si>
-    <t>R$ 1.287,00</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>-67,64%</t>
+    <t>R$ 1.455,00</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>-63,42%</t>
   </si>
   <si>
     <t>R$ 66,29</t>
   </si>
   <si>
-    <t>R$ 21,45</t>
-  </si>
-  <si>
-    <t>Fundos Imobiliários</t>
-  </si>
-  <si>
-    <t>R$ 519.207,78</t>
-  </si>
-  <si>
-    <t>75,3% | Renda Variável</t>
-  </si>
-  <si>
-    <t>Rentabilidade c/ proventos</t>
-  </si>
-  <si>
-    <t>Preço médio (abertura)</t>
-  </si>
-  <si>
-    <t>Última cotação</t>
-  </si>
-  <si>
-    <t>VGIA11</t>
-  </si>
-  <si>
-    <t>R$ 72.157,36</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>R$ 10,26</t>
-  </si>
-  <si>
-    <t>R$ 9,82</t>
-  </si>
-  <si>
-    <t>7.348</t>
-  </si>
-  <si>
-    <t>BLMR11</t>
-  </si>
-  <si>
-    <t>R$ 70.000,00</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>R$ 7,51</t>
-  </si>
-  <si>
-    <t>R$ 7,00</t>
-  </si>
-  <si>
-    <t>10.000</t>
-  </si>
-  <si>
-    <t>RZTR11</t>
-  </si>
-  <si>
-    <t>R$ 62.149,50</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>R$ 102,97</t>
-  </si>
-  <si>
-    <t>R$ 98,65</t>
-  </si>
-  <si>
-    <t>630</t>
-  </si>
-  <si>
-    <t>RBRR11</t>
-  </si>
-  <si>
-    <t>R$ 55.517,39</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>-8,49%</t>
-  </si>
-  <si>
-    <t>R$ 100,38</t>
-  </si>
-  <si>
-    <t>R$ 83,99</t>
-  </si>
-  <si>
-    <t>661</t>
-  </si>
-  <si>
-    <t>LVBI11</t>
-  </si>
-  <si>
-    <t>R$ 52.590,50</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>R$ 98,50</t>
-  </si>
-  <si>
-    <t>R$ 98,30</t>
-  </si>
-  <si>
-    <t>535</t>
-  </si>
-  <si>
-    <t>BRCO11</t>
-  </si>
-  <si>
-    <t>R$ 49.730,10</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>R$ 99,28</t>
-  </si>
-  <si>
-    <t>R$ 97,51</t>
-  </si>
-  <si>
-    <t>510</t>
-  </si>
-  <si>
-    <t>WHGR11</t>
-  </si>
-  <si>
-    <t>R$ 49.726,80</t>
-  </si>
-  <si>
-    <t>-11,77%</t>
-  </si>
-  <si>
-    <t>R$ 10,31</t>
-  </si>
-  <si>
-    <t>R$ 8,55</t>
-  </si>
-  <si>
-    <t>5.816</t>
-  </si>
-  <si>
-    <t>PVBI11</t>
-  </si>
-  <si>
-    <t>R$ 48.267,00</t>
-  </si>
-  <si>
-    <t>7%</t>
-  </si>
-  <si>
-    <t>-2,84%</t>
-  </si>
-  <si>
-    <t>R$ 93,67</t>
-  </si>
-  <si>
-    <t>R$ 86,50</t>
-  </si>
-  <si>
-    <t>558</t>
-  </si>
-  <si>
-    <t>FGAA11</t>
-  </si>
-  <si>
-    <t>R$ 44.099,13</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>8%</t>
-  </si>
-  <si>
-    <t>R$ 9,93</t>
-  </si>
-  <si>
-    <t>4.441</t>
-  </si>
-  <si>
-    <t>AAZQ11</t>
-  </si>
-  <si>
-    <t>R$ 14.970,00</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>-0,2%</t>
-  </si>
-  <si>
-    <t>R$ 10,00</t>
-  </si>
-  <si>
-    <t>R$ 9,98</t>
-  </si>
-  <si>
-    <t>1.500</t>
-  </si>
-  <si>
-    <t>Fundos de Investimentos</t>
-  </si>
-  <si>
-    <t>R$ 135.839,56</t>
-  </si>
-  <si>
-    <t>19,7% | Pós-Fixado</t>
-  </si>
-  <si>
-    <t>Valor líquido</t>
-  </si>
-  <si>
-    <t>Data da cota</t>
-  </si>
-  <si>
-    <t>Trend DI Simples FIRF</t>
-  </si>
-  <si>
-    <t>R$ 134.914,90</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>R$ 125.805,53</t>
-  </si>
-  <si>
-    <t>R$ 134.257,09</t>
-  </si>
-  <si>
-    <t>26/12/2022</t>
-  </si>
-  <si>
-    <t>Trend Investback FIC FIRF Simples</t>
-  </si>
-  <si>
-    <t>R$ 924,66</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>R$ 847,00</t>
-  </si>
-  <si>
-    <t>R$ 920,85</t>
-  </si>
-  <si>
-    <t>Renda Fixa</t>
-  </si>
-  <si>
-    <t>R$ 13.617,80</t>
-  </si>
-  <si>
-    <t>2% | Inflação</t>
-  </si>
-  <si>
-    <t>Posição na taxa de compra</t>
-  </si>
-  <si>
-    <t>Taxa de compra</t>
-  </si>
-  <si>
-    <t>Data aplicação</t>
-  </si>
-  <si>
-    <t>Data vencimento</t>
-  </si>
-  <si>
-    <t>CDB BMG  - JUL/2023</t>
-  </si>
-  <si>
-    <t>R$ 7.108,71</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>R$ 6.000,00</t>
-  </si>
-  <si>
-    <t>IPC-A + 4,15%</t>
-  </si>
-  <si>
-    <t>15/07/2021</t>
-  </si>
-  <si>
-    <t>15/07/2023</t>
-  </si>
-  <si>
-    <t>CDB BMG  - SET/2024</t>
-  </si>
-  <si>
-    <t>R$ 6.509,09</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>IPC-A + 3,65%</t>
-  </si>
-  <si>
-    <t>24/09/2020</t>
-  </si>
-  <si>
-    <t>23/09/2024</t>
+    <t>R$ 24,25</t>
+  </si>
+  <si>
+    <t>Dividendos, proventos e outras distribuições</t>
+  </si>
+  <si>
+    <t>Proventos</t>
+  </si>
+  <si>
+    <t>R$ 2.221,05</t>
+  </si>
+  <si>
+    <t>0,3% | Alternativos</t>
+  </si>
+  <si>
+    <t>Provisionado</t>
+  </si>
+  <si>
+    <t>Valor provisionado</t>
+  </si>
+  <si>
+    <t>Evento</t>
+  </si>
+  <si>
+    <t>Previsão pagamento</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>R$ 523,44</t>
+  </si>
+  <si>
+    <t>RENDIMENTO</t>
+  </si>
+  <si>
+    <t>13/01/2023</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>R$ 331,50</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>R$ 105,00</t>
+  </si>
+  <si>
+    <t>R$ 541,80</t>
+  </si>
+  <si>
+    <t>06/01/2023</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>R$ 401,25</t>
+  </si>
+  <si>
+    <t>R$ 318,06</t>
+  </si>
+  <si>
+    <t>Custódia Remunerada</t>
   </si>
 </sst>
 </file>
@@ -622,7 +685,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -707,6 +770,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color rgb="666666"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="thin">
         <color rgb="666666"/>
@@ -717,7 +791,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" indent="1"/>
@@ -754,7 +828,14 @@
       <alignment vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="bottom" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="bottom" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1139,7 +1220,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G66"/>
   <sheetFormatPr defaultRowHeight="25" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55" defaultColWidth="25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
@@ -1209,22 +1290,22 @@
         <v>9</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="D4" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>12</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" ht="25" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1252,7 +1333,7 @@
     </row>
     <row r="6" ht="45" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6"/>
       <c r="C6"/>
@@ -1260,7 +1341,7 @@
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" ht="25" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1288,33 +1369,33 @@
     </row>
     <row r="8" ht="35" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="C8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="D8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="E8" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="F8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="G8" s="11" t="s">
         <v>21</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="9" ht="30" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>23</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>15</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>24</v>
@@ -1326,858 +1407,858 @@
         <v>26</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" ht="25" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>0</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" ht="30" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="11" ht="25" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" ht="45" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" ht="25" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" ht="35" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="11" t="s">
+      <c r="A11" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" ht="25" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" ht="45" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" ht="25" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" ht="35" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="D15" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" ht="30" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="11" t="s">
         <v>40</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="16" ht="30" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="D16" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="F16" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="12" t="s">
+    </row>
+    <row r="17" ht="25" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" ht="25" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" ht="45" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F16" s="12" t="s">
+    </row>
+    <row r="20" ht="25" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" ht="35" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="B21" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="11" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="17" ht="30" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+      <c r="E21" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="F21" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="G21" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="12" t="s">
+    </row>
+    <row r="22" ht="30" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="B22" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="C22" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="G17" s="12" t="s">
+      <c r="D22" s="12" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="18" ht="30" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+      <c r="E22" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="F22" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="G22" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D18" s="12" t="s">
+    </row>
+    <row r="23" ht="30" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="B23" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="C23" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="D23" s="12" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="19" ht="30" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+      <c r="E23" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="F23" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="G23" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="12" t="s">
+    </row>
+    <row r="24" ht="30" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="B24" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="C24" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="G19" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" ht="25" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" ht="25" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" ht="45" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
+      <c r="D24" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="G22" s="10" t="s">
+      <c r="E24" s="12" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="23" ht="25" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" ht="35" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
+      <c r="F24" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B24" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="11" t="s">
+      <c r="G24" s="12" t="s">
         <v>72</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="25" ht="30" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="D25" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="E25" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="F25" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="G25" s="12" t="s">
         <v>79</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="26" ht="30" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="D26" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="E26" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="F26" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="G26" s="12" t="s">
         <v>86</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="27" ht="30" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="D27" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="E27" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="F27" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="E27" s="12" t="s">
+      <c r="G27" s="12" t="s">
         <v>93</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="G27" s="12" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="28" ht="30" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="D28" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="E28" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="F28" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="E28" s="12" t="s">
+      <c r="G28" s="12" t="s">
         <v>100</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="29" ht="30" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="D29" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="E29" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="F29" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="E29" s="12" t="s">
+      <c r="G29" s="12" t="s">
         <v>107</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="30" ht="30" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C30" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="D30" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="E30" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="F30" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="G30" s="12" t="s">
         <v>113</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="G30" s="12" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="31" ht="30" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="D31" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="E31" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="C31" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="D31" s="12" t="s">
+      <c r="F31" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="E31" s="12" t="s">
+      <c r="G31" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="F31" s="12" t="s">
+    </row>
+    <row r="32" ht="25" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" ht="25" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" ht="45" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="G31" s="12" t="s">
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34" s="10" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="32" ht="30" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
+    <row r="35" ht="25" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" ht="35" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B36" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C36" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="F36" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="E32" s="12" t="s">
+      <c r="G36" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="F32" s="12" t="s">
+    </row>
+    <row r="37" ht="30" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="G32" s="12" t="s">
+      <c r="B37" s="12" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="33" ht="30" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="12" t="s">
+      <c r="C37" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="D37" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="E37" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="F37" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="E33" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="F33" s="12" t="s">
+      <c r="G37" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="G33" s="12" t="s">
+    </row>
+    <row r="38" ht="30" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="12" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="34" ht="30" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="12" t="s">
+      <c r="B38" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="C38" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="D38" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E38" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="F38" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="E34" s="12" t="s">
+      <c r="G38" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="F34" s="12" t="s">
+    </row>
+    <row r="39" ht="25" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" ht="25" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" ht="45" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="G34" s="12" t="s">
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41" s="10" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="35" ht="25" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="F35" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="G35" s="13" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" ht="25" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" ht="45" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
+    <row r="42" ht="25" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" ht="35" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="B37"/>
-      <c r="C37"/>
-      <c r="D37"/>
-      <c r="E37"/>
-      <c r="F37"/>
-      <c r="G37" s="10" t="s">
+      <c r="B43" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" s="11" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="38" ht="25" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" ht="35" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="11" t="s">
+      <c r="E43" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="B39" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F39" s="11" t="s">
+      <c r="F43" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="G39" s="11" t="s">
+      <c r="G43" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" ht="30" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="12" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="40" ht="30" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="12" t="s">
+      <c r="B44" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="C44" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="D44" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="D40" s="12" t="s">
+      <c r="E44" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="E40" s="12" t="s">
+      <c r="F44" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="F40" s="12" t="s">
+      <c r="G44" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="G40" s="12" t="s">
+    </row>
+    <row r="45" ht="30" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="12" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="41" ht="30" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="12" t="s">
+      <c r="B45" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="C45" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="D45" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="D41" s="12" t="s">
+      <c r="E45" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="E41" s="12" t="s">
+      <c r="F45" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="F41" s="12" t="s">
+      <c r="G45" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="G41" s="12" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="42" ht="25" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="E42" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="F42" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="G42" s="13" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" ht="25" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" ht="45" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="9" t="s">
+    </row>
+    <row r="46" ht="30" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="B44"/>
-      <c r="C44"/>
-      <c r="D44"/>
-      <c r="E44"/>
-      <c r="F44"/>
-      <c r="G44" s="10" t="s">
+      <c r="B46" s="12" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="45" ht="25" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" ht="35" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="11" t="s">
+      <c r="C46" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="D46" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="E46" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="C46" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E46" s="11" t="s">
+      <c r="F46" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="F46" s="11" t="s">
+      <c r="G46" s="12" t="s">
         <v>166</v>
-      </c>
-      <c r="G46" s="11" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="47" ht="30" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="B47" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="C47" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="D47" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="D47" s="12" t="s">
+      <c r="E47" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="E47" s="12" t="s">
+      <c r="F47" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="F47" s="12" t="s">
+      <c r="G47" s="12" t="s">
         <v>173</v>
-      </c>
-      <c r="G47" s="12" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="48" ht="30" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="B48" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="B48" s="12" t="s">
+      <c r="C48" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="C48" s="12" t="s">
+      <c r="D48" s="12" t="s">
         <v>177</v>
-      </c>
-      <c r="D48" s="12" t="s">
-        <v>15</v>
       </c>
       <c r="E48" s="12" t="s">
         <v>178</v>
@@ -2186,7 +2267,7 @@
         <v>179</v>
       </c>
       <c r="G48" s="12" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
     </row>
     <row r="49" ht="25" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -2213,37 +2294,361 @@
       </c>
     </row>
     <row r="50" ht="25" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C50" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D50" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E50" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F50" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="G50" s="14" t="s">
+      <c r="A50" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" ht="45" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+    </row>
+    <row r="52" ht="25" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" ht="35" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="B53" s="15"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
+    </row>
+    <row r="54" ht="25" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" ht="45" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B55"/>
+      <c r="C55"/>
+      <c r="D55"/>
+      <c r="E55"/>
+      <c r="F55"/>
+      <c r="G55" s="10" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="56" ht="25" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D56" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E56" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F56" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="G56" s="16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" ht="35" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="F57" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="G57" s="11" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="58" ht="30" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="F58" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="G58" s="12" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="59" ht="30" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="F59" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="G59" s="12" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="60" ht="30" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="G60" s="12" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="61" ht="30" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="F61" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="G61" s="12" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="62" ht="30" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D62" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="E62" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="F62" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="G62" s="12" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="63" ht="30" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="D63" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="E63" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F63" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="G63" s="12" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="64" ht="25" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D64" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E64" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F64" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G64" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" ht="35" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="B65" s="15"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="15"/>
+    </row>
+    <row r="66" ht="25" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C66" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D66" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E66" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F66" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="G66" s="17" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="11">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A51:G51"/>
+    <mergeCell ref="A53:G53"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="A65:G65"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
